--- a/Sesion5/PL5Excel.xlsx
+++ b/Sesion5/PL5Excel.xlsx
@@ -94,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -155,7 +155,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,6 +1903,9 @@
         <v>60.923333333333332</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+    </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>

--- a/Sesion5/PL5Excel.xlsx
+++ b/Sesion5/PL5Excel.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UO282978\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo282978_uniovi_es/Documents/CESPL/CESPL-main/Sesion5/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B01FC98DD9775AB99537F3DD21335A42E39C57D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BDCC64-FA45-4B09-B6DA-415BF15DCF44}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -92,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -221,7 +233,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -650,6 +661,8 @@
         <c:axId val="1470112304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.31000000000000005"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -693,7 +706,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -768,6 +780,7 @@
         <c:axId val="1470112720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -811,7 +824,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -892,7 +904,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1532,7 +1543,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1812,11 +1829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
